--- a/imageCreationExcel/back/0901-1/0901-1_12.xlsx
+++ b/imageCreationExcel/back/0901-1/0901-1_12.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,15 +495,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.02266167362008</v>
+        <v>1.170907736061739</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8501161460527883</v>
+        <v>1.049079753852468</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>27.7301485564505</v>
+        <v>11.62473138092455</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_0_contrast1.0_sharpness0.85_equalization28.0.jpg</t>
+          <t>1_2_contrast1.2_gamma1.0_equalization12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5200650591780386</v>
+        <v>1.070895105719071</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.5890448513082532</v>
+        <v>0.8170518394375792</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6.401069807551806</v>
+        <v>10.08782100762335</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_B_sharpness0.52_gamma0.59_brightness6.4.jpg</t>
+          <t>2_S_gamma1.1_contrast0.82_equalization10.0.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8710492211937225</v>
+        <v>12.54619349786921</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.3081692839778278</v>
+        <v>0.8240898210384375</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7.340654170252339</v>
+        <v>0.3281115241810443</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_8_contrast0.87_sharpness0.31_equalization7.3.jpg</t>
+          <t>3_J_brightness13.0_contrast0.82_sharpness0.33.jpg</t>
         </is>
       </c>
     </row>
@@ -612,41 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.09195870796921635</v>
+        <v>0.9897998486061315</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.883678528377134</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>28.27830547388112</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H5" t="n">
+        <v>7.902666015418078</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_3_sharpness0.092_equalization28.0.jpg</t>
+          <t>4_J_gamma0.99_contrast0.88_equalization7.9.jpg</t>
         </is>
       </c>
     </row>
@@ -656,24 +654,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.013582976451691</v>
+        <v>0.8905023440511306</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9238651743522922</v>
+        <v>0.8660632212029098</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -681,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.87825497060411</v>
+        <v>10.02092035339916</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_J_gamma1.0_contrast0.92_equalization7.9.jpg</t>
+          <t>5_S_contrast0.89_gamma0.87_equalization10.0.jpg</t>
         </is>
       </c>
     </row>
@@ -698,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>23.49704645728069</v>
+        <v>1.070074529043039</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.5862747797802157</v>
+        <v>0.9788503296977192</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.7580618499473926</v>
+        <v>4.54789807489324</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_I_brightness23.0_sharpness0.59_gamma0.76.jpg</t>
+          <t>6_Q_contrast1.1_gamma0.98_equalization4.5.jpg</t>
         </is>
       </c>
     </row>
@@ -740,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -749,7 +747,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5218517071771704</v>
+        <v>0.7604075370250949</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -757,22 +755,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8704330438171486</v>
+        <v>0.8013449043455716</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>21.94936404961054</v>
+        <v>0.679997237028692</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_I_sharpness0.52_contrast0.87_equalization22.0.jpg</t>
+          <t>7_3_sharpness0.76_contrast0.8_gamma0.68.jpg</t>
         </is>
       </c>
     </row>
@@ -782,7 +780,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -791,32 +789,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8173813004252733</v>
+        <v>0.9829110470701673</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.910536008522693</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>6.616927379207308</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H9" t="n">
+        <v>8.758904212487082</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_7_gamma0.82_equalization6.6.jpg</t>
+          <t>8_P_gamma0.98_contrast0.91_equalization8.8.jpg</t>
         </is>
       </c>
     </row>
@@ -826,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -835,15 +831,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.5322808637147476</v>
+        <v>0.6909989424802455</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.8877858879009976</v>
+        <v>5.411018235164285</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -860,7 +856,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_Q_gamma0.53_contrast0.89.jpg</t>
+          <t>9_J_gamma0.69_equalization5.4.jpg</t>
         </is>
       </c>
     </row>
@@ -870,41 +866,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8907926819953649</v>
+        <v>0.7670761684257961</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>15.95108608527201</v>
+        <v>0.8004717734617388</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>26.82582549812128</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_T_contrast0.89_brightness16.0.jpg</t>
+          <t>10_C_gamma0.77_contrast0.8_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -914,39 +908,41 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4.416296613780001</v>
+        <v>1.076829840115203</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.6282481704633568</v>
+        <v>0.4417475542730055</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>0.3048358804063084</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_9_brightness4.4_gamma0.63_sharpness0.3.jpg</t>
+          <t>11_C_gamma1.1_sharpness0.44.jpg</t>
         </is>
       </c>
     </row>
@@ -956,41 +952,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8060289282431252</v>
+        <v>0.9792876582467159</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.611744122101282</v>
+        <v>0.003406718824725652</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>14.81917820187063</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_0_contrast0.81_brightness5.6.jpg</t>
+          <t>12_E_gamma0.98_sharpness0.0034_equalization15.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1000,7 +994,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1009,7 +1003,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6493359976004855</v>
+        <v>0.7541299076234645</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1017,7 +1011,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.5939072491156887</v>
+        <v>0.5047083054732079</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1025,14 +1019,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>19.9964806778797</v>
+        <v>25.84830467331168</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_B_sharpness0.65_gamma0.59_equalization20.0.jpg</t>
+          <t>13_T_sharpness0.75_gamma0.5_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1036,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1051,32 +1045,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.7903784339940532</v>
+        <v>0.5995434335890545</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.2329881756649698</v>
+        <v>0.8710243789650728</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>29.38175188622456</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_8_gamma0.79_sharpness0.23.jpg</t>
+          <t>14_9_gamma0.6_contrast0.87_brightness29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1078,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1095,30 +1087,32 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.7270087254880273</v>
+        <v>0.5923241622929242</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9260578910993948</v>
+        <v>28.24895402060763</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>18.57829889135588</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_1_gamma0.73_contrast0.93_equalization19.0.jpg</t>
+          <t>15_B_gamma0.59_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1128,41 +1122,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>27.33857005635909</v>
+        <v>0.9865541082408523</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9504085190970974</v>
+        <v>1.032730020270254</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>27.71583510536817</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_0_brightness27.0_contrast0.95.jpg</t>
+          <t>16_7_sharpness0.99_gamma1.0_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1172,24 +1164,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9241337238810775</v>
+        <v>15.88271480981083</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>28.40628075163713</v>
+        <v>0.5012838161734051</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1206,7 +1198,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_1_sharpness0.92_equalization28.0.jpg</t>
+          <t>17_B_brightness16.0_sharpness0.5.jpg</t>
         </is>
       </c>
     </row>
@@ -1216,39 +1208,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.5704748562673341</v>
+        <v>6.327618251265369</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>9.231007595262968</v>
+        <v>0.967729951842028</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.8577666871423202</v>
+        <v>1.069415019613283</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_T_gamma0.57_brightness9.2_sharpness0.86.jpg</t>
+          <t>18_J_brightness6.3_sharpness0.97_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1263,19 +1255,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1.094787558874311</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>16.63057015453725</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F20" t="n">
-        <v>0.6504879894731949</v>
+        <v>27.68943176659512</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1288,11 +1280,11 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_E_brightness17.0_gamma0.65.jpg</t>
+          <t>19_E_gamma1.1_brightness28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1302,41 +1294,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.6357533566490985</v>
+        <v>0.9506476683621211</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>23.40275870939331</v>
+        <v>0.8098196457923605</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>14.89945473459839</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_2_gamma0.64_brightness23.0.jpg</t>
+          <t>20_S_contrast0.95_sharpness0.81_equalization15.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1351,19 +1341,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.066619672571606</v>
+        <v>0.5194713451641059</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>13.25120674898141</v>
+        <v>0.8580302078498</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1376,11 +1366,11 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_S_contrast1.1_equalization13.0.jpg</t>
+          <t>21_S_gamma0.52_sharpness0.86.jpg</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1380,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1399,32 +1389,30 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9041024836057616</v>
+        <v>1.047823519533459</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>12.64869397233256</v>
+        <v>27.6787143164831</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>0.951798363588055</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_3_gamma0.9_equalization13.0.jpg</t>
+          <t>22_C_gamma1.0_brightness28.0_contrast0.95.jpg</t>
         </is>
       </c>
     </row>
@@ -1434,16 +1422,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.5817533762607755</v>
+        <v>0.01540486073070557</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1451,22 +1439,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.068134147628948</v>
+        <v>0.8154348790756403</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>5.132572514054762</v>
+        <v>19.04485008847705</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_C_gamma0.58_contrast1.1_equalization5.1.jpg</t>
+          <t>23_1_sharpness0.015_contrast0.82_brightness19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1476,39 +1464,41 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.4317191218139632</v>
+        <v>1.060487396165954</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.6985798980763812</v>
+        <v>0.7257387272238408</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>20.10470195919605</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_I_sharpness0.43_gamma0.7_equalization20.0.jpg</t>
+          <t>24_S_contrast1.1_sharpness0.73.jpg</t>
         </is>
       </c>
     </row>
@@ -1518,39 +1508,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8925005969839548</v>
+        <v>0.01508447653929401</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.923651656656671</v>
+        <v>16.7870604229978</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>19.10645933317923</v>
+        <v>0.9091583593964462</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_Q_gamma0.89_contrast0.92_brightness19.0.jpg</t>
+          <t>25_9_sharpness0.015_brightness17.0_contrast0.91.jpg</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1550,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1569,15 +1559,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.002705237008322</v>
+        <v>0.9810628254588896</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>20.33143606816107</v>
+        <v>0.4235543812574459</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1590,11 +1580,11 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_8_contrast1.0_equalization20.0.jpg</t>
+          <t>26_P_contrast0.98_sharpness0.42.jpg</t>
         </is>
       </c>
     </row>
@@ -1604,24 +1594,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.3318785724941171</v>
+        <v>0.6705899454528002</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.8008732936902055</v>
+        <v>12.6884039022171</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1638,7 +1628,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_T_sharpness0.33_gamma0.8.jpg</t>
+          <t>27_1_gamma0.67_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1648,7 +1638,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1657,15 +1647,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.0880439164044</v>
+        <v>1.01096477753252</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>23.03082352624839</v>
+        <v>25.9898718805829</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1682,7 +1672,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_S_contrast1.1_equalization23.0.jpg</t>
+          <t>28_B_contrast1.0_brightness26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1692,41 +1682,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.069682537398724</v>
+        <v>0.1870179839886587</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>23.88326924269829</v>
+        <v>1.002375571134146</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>19.6291589455824</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_8_contrast1.1_equalization24.0.jpg</t>
+          <t>29_C_sharpness0.19_contrast1.0_brightness20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1736,39 +1724,41 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.6951648098539799</v>
+        <v>0.5047749371948955</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>28.02307546779732</v>
+        <v>21.15923947380162</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>0.06279172901970698</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_7_gamma0.7_brightness28.0_sharpness0.063.jpg</t>
+          <t>30_C_sharpness0.5_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1778,39 +1768,41 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.085741599321716</v>
+        <v>0.7477363278140611</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.3798147106538784</v>
+        <v>23.15564936601995</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1.019238883983523</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_S_gamma1.1_sharpness0.38_contrast1.0.jpg</t>
+          <t>31_I_sharpness0.75_brightness23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1812,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1829,15 +1821,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.6431672088848328</v>
+        <v>0.8269908541037287</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>22.31094078279187</v>
+        <v>0.3173614545506726</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1850,11 +1842,11 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_I_gamma0.64_equalization22.0.jpg</t>
+          <t>32_9_gamma0.83_sharpness0.32.jpg</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1856,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1873,30 +1865,32 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.4839977239205262</v>
+        <v>0.6861040196710678</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.124489556609677</v>
+        <v>25.2872575157655</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7.435054766388765</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_S_sharpness0.48_contrast1.1_equalization7.4.jpg</t>
+          <t>33_T_sharpness0.69_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1900,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1915,15 +1909,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.5930123010100206</v>
+        <v>0.3158621468359488</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.056340468193075</v>
+        <v>27.30644277569876</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1940,7 +1934,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_E_sharpness0.59_contrast1.1.jpg</t>
+          <t>34_J_sharpness0.32_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1950,39 +1944,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.5065002504442229</v>
+        <v>1.155569219211062</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.8186600103195358</v>
+        <v>0.6571897417691284</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>2.895992506881858</v>
+        <v>26.13006773999338</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_E_gamma0.51_sharpness0.82_brightness2.9.jpg</t>
+          <t>35_0_contrast1.2_gamma0.66_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1986,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2001,30 +1995,30 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.088066561886396</v>
+        <v>1.121312099256165</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.551670202509318</v>
+        <v>0.2829690448848201</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.7332272592492589</v>
+        <v>0.6319877629233641</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_T_contrast1.1_gamma0.55_sharpness0.73.jpg</t>
+          <t>36_2_contrast1.1_sharpness0.28_gamma0.63.jpg</t>
         </is>
       </c>
     </row>
@@ -2034,39 +2028,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.8376004680221398</v>
+        <v>20.69328074201658</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.08704188821235</v>
+        <v>0.03943723040673341</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>25.41433857765711</v>
+        <v>1.129436985018231</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_T_gamma0.84_contrast1.1_brightness25.0.jpg</t>
+          <t>37_3_brightness21.0_sharpness0.039_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2070,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2085,7 +2079,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.8540084124230953</v>
+        <v>0.9903335952761032</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2093,7 +2087,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>15.32567612222878</v>
+        <v>10.68549005735915</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2110,7 +2104,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_9_contrast0.85_equalization15.0.jpg</t>
+          <t>38_2_contrast0.99_equalization11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2120,39 +2114,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.110124341573815</v>
+        <v>0.9797077075283628</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>21.8701294823675</v>
+        <v>0.9051681594422626</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1.056342443746603</v>
+        <v>20.00367646437136</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_P_contrast1.1_brightness22.0_gamma1.1.jpg</t>
+          <t>39_B_sharpness0.98_contrast0.91_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2162,41 +2156,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.098166846808357</v>
+        <v>0.4622552006279509</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9029723916643082</v>
+        <v>0.7818160828250492</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>23.97100293605491</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_1_gamma1.1_contrast0.9.jpg</t>
+          <t>40_I_sharpness0.46_gamma0.78_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2206,39 +2198,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.9191831737239009</v>
+        <v>0.6845384079498685</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.6527309487896539</v>
+        <v>6.221345244093265</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1.736359917903909</v>
+        <v>1.009081694811639</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_P_contrast0.92_gamma0.65_brightness1.7.jpg</t>
+          <t>41_3_sharpness0.68_brightness6.2_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2240,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2257,7 +2249,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.073150885073076</v>
+        <v>1.005671786482935</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2265,22 +2257,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.8994056800301431</v>
+        <v>0.6720328384596255</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>20.35186009621794</v>
+        <v>0.3590571006238651</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_J_contrast1.1_gamma0.9_equalization20.0.jpg</t>
+          <t>42_I_contrast1.0_gamma0.67_sharpness0.36.jpg</t>
         </is>
       </c>
     </row>
@@ -2290,16 +2282,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>27.38189941860464</v>
+        <v>0.9476266011833336</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2307,24 +2299,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.065914400431331</v>
+        <v>1.116592460650768</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>19.19896549557738</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_3_brightness27.0_contrast1.1.jpg</t>
+          <t>43_E_gamma0.95_contrast1.1_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,24 +2324,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.8566228562923421</v>
+        <v>0.8462805134730815</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>6.543750502217321</v>
+        <v>0.9597795275129535</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2368,7 +2358,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_I_contrast0.86_equalization6.5.jpg</t>
+          <t>44_S_gamma0.85_sharpness0.96.jpg</t>
         </is>
       </c>
     </row>
@@ -2378,41 +2368,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.8899931386328629</v>
+        <v>0.7653353440887241</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.003183198538443288</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>24.60924828001399</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H46" t="n">
+        <v>23.94757420200898</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_E_contrast0.89_equalization25.0.jpg</t>
+          <t>45_T_gamma0.77_sharpness0.0032_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2422,7 +2410,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2431,7 +2419,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>13.49524098049962</v>
+        <v>12.39764425036826</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2439,24 +2427,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.5355028427337749</v>
+        <v>0.8330518997987778</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>0.9465689365365741</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_9_brightness13.0_sharpness0.54.jpg</t>
+          <t>46_B_brightness12.0_sharpness0.83_contrast0.95.jpg</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2452,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2475,15 +2461,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.6402235610049706</v>
+        <v>0.004745701262988344</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.072421271956954</v>
+        <v>21.33813538629199</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2500,7 +2486,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_P_sharpness0.64_contrast1.1.jpg</t>
+          <t>47_2_sharpness0.0047_brightness21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2510,16 +2496,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9449442654586978</v>
+        <v>1.174064768026094</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2527,24 +2513,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>10.47864338500529</v>
+        <v>23.35362403626507</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0.6170572259159085</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_2_gamma0.94_brightness10.0.jpg</t>
+          <t>48_7_contrast1.2_brightness23.0_sharpness0.62.jpg</t>
         </is>
       </c>
     </row>
